--- a/Results/Linkages.xlsx
+++ b/Results/Linkages.xlsx
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7194025423248219</v>
+        <v>0.3024141963797865</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4181773250770425</v>
+        <v>0.2743781458632312</v>
       </c>
     </row>
     <row r="3">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.151829163376998</v>
+        <v>1.089026853924387</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6053696013804822</v>
+        <v>0.9269405783659038</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.7488477632439903</v>
+        <v>0.3147920409071624</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2842739950496451</v>
+        <v>0.1865203276253322</v>
       </c>
     </row>
     <row r="5">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.16862583790524</v>
+        <v>1.104907706918466</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4120069211322155</v>
+        <v>0.6308640752594027</v>
       </c>
     </row>
     <row r="6">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.9290915038640942</v>
+        <v>0.3905608389933722</v>
       </c>
       <c r="F6" t="n">
-        <v>1.129606010713473</v>
+        <v>0.7411669265386945</v>
       </c>
     </row>
     <row r="7">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.215450913691779</v>
+        <v>1.149179693242444</v>
       </c>
       <c r="F7" t="n">
-        <v>1.565759360016421</v>
+        <v>2.397487226721924</v>
       </c>
     </row>
     <row r="8">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.063660800396116</v>
+        <v>0.4471295377035718</v>
       </c>
       <c r="F8" t="n">
-        <v>1.455732944920535</v>
+        <v>0.9551481688437571</v>
       </c>
     </row>
     <row r="9">
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.312906923601264</v>
+        <v>1.241322013685682</v>
       </c>
       <c r="F9" t="n">
-        <v>1.711915070501054</v>
+        <v>2.621280523410694</v>
       </c>
     </row>
     <row r="10">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.632332191333366</v>
+        <v>0.6861811000440545</v>
       </c>
       <c r="F10" t="n">
-        <v>1.455964844078042</v>
+        <v>0.955300324537164</v>
       </c>
     </row>
     <row r="11">
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.886560459131668</v>
+        <v>1.783697675723685</v>
       </c>
       <c r="F11" t="n">
-        <v>1.694910522365115</v>
+        <v>2.595243197373784</v>
       </c>
     </row>
     <row r="12">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.783342752149703</v>
+        <v>0.7496611890169871</v>
       </c>
       <c r="F12" t="n">
-        <v>1.456876317493504</v>
+        <v>0.9558983684069311</v>
       </c>
     </row>
     <row r="13">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.162854162678905</v>
+        <v>2.044926747100029</v>
       </c>
       <c r="F13" t="n">
-        <v>1.713175591756364</v>
+        <v>2.623210630734841</v>
       </c>
     </row>
     <row r="14">
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.110102731771765</v>
+        <v>0.4666522645901146</v>
       </c>
       <c r="F14" t="n">
-        <v>1.454864533272638</v>
+        <v>0.9545783790356844</v>
       </c>
     </row>
     <row r="15">
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.308512446249582</v>
+        <v>1.237167140726125</v>
       </c>
       <c r="F15" t="n">
-        <v>1.701043237085484</v>
+        <v>2.604633596424032</v>
       </c>
     </row>
     <row r="16">
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.380942932256073</v>
+        <v>1.000873504224075</v>
       </c>
       <c r="F16" t="n">
-        <v>1.396736051689758</v>
+        <v>0.9164386138161877</v>
       </c>
     </row>
     <row r="17">
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.715777374112867</v>
+        <v>2.567702384803352</v>
       </c>
       <c r="F17" t="n">
-        <v>1.492305849154846</v>
+        <v>2.285015375334326</v>
       </c>
     </row>
     <row r="18">
@@ -897,10 +897,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.459900497808104</v>
+        <v>0.6136962407894107</v>
       </c>
       <c r="F18" t="n">
-        <v>1.523924383105529</v>
+        <v>0.9998905287254146</v>
       </c>
     </row>
     <row r="19">
@@ -923,10 +923,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.523535060808448</v>
+        <v>1.440465866701337</v>
       </c>
       <c r="F19" t="n">
-        <v>2.069272014337084</v>
+        <v>3.168464675781516</v>
       </c>
     </row>
     <row r="20">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.060637488074659</v>
+        <v>0.4458586323170773</v>
       </c>
       <c r="F20" t="n">
-        <v>1.524085950366165</v>
+        <v>0.9999965376425579</v>
       </c>
     </row>
     <row r="21">
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.222447068976839</v>
+        <v>1.155794390301613</v>
       </c>
       <c r="F21" t="n">
-        <v>2.137833499374439</v>
+        <v>3.273445868179063</v>
       </c>
     </row>
     <row r="22">
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.8307180309973452</v>
+        <v>0.3492077258309582</v>
       </c>
       <c r="F22" t="n">
-        <v>0.393945366081734</v>
+        <v>0.2584788620401745</v>
       </c>
     </row>
     <row r="23">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.9079661749269465</v>
+        <v>0.8584602460068241</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4264659351368683</v>
+        <v>0.6530036851332883</v>
       </c>
     </row>
     <row r="24">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2552038832932326</v>
+        <v>0.1072796838189056</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1943171045539639</v>
+        <v>0.1274970297521645</v>
       </c>
     </row>
     <row r="25">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.30277144956943</v>
+        <v>0.2862631453227078</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2164857395749546</v>
+        <v>0.3314824797809028</v>
       </c>
     </row>
     <row r="26">
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.9652049305659949</v>
+        <v>0.4057417874499659</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9263663028801158</v>
+        <v>0.6078155206707945</v>
       </c>
     </row>
     <row r="27">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.928292416938534</v>
+        <v>0.877678220419875</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8919393916179232</v>
+        <v>1.36573559962092</v>
       </c>
     </row>
     <row r="28">
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.009745839491969</v>
+        <v>0.4244653843048569</v>
       </c>
       <c r="F28" t="n">
-        <v>1.092298280537214</v>
+        <v>0.7166882539319435</v>
       </c>
     </row>
     <row r="29">
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.8421160525025945</v>
+        <v>0.7962005342939544</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9106787176716392</v>
+        <v>1.394429213721806</v>
       </c>
     </row>
     <row r="30">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.63482066927098</v>
+        <v>0.6872271778814785</v>
       </c>
       <c r="F30" t="n">
-        <v>1.071929856359854</v>
+        <v>0.7033239461973954</v>
       </c>
     </row>
     <row r="31">
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.370942424783056</v>
+        <v>1.296193188402801</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8974098046506899</v>
+        <v>1.374111883809835</v>
       </c>
     </row>
     <row r="32">
@@ -1261,10 +1261,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.641127256960294</v>
+        <v>0.6898782689407332</v>
       </c>
       <c r="F32" t="n">
-        <v>1.122345942357497</v>
+        <v>0.7364033873057002</v>
       </c>
     </row>
     <row r="33">
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.355465955798446</v>
+        <v>1.281560558092631</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9279702825819485</v>
+        <v>1.420906019201075</v>
       </c>
     </row>
     <row r="34">
@@ -1313,10 +1313,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.8198140794556334</v>
+        <v>0.3446240476412834</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9701101093128223</v>
+        <v>0.6365170876431187</v>
       </c>
     </row>
     <row r="35">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.6679095153879011</v>
+        <v>0.6314924308015428</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8087781624749034</v>
+        <v>1.238399311733876</v>
       </c>
     </row>
     <row r="36">
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.775366806930028</v>
+        <v>0.7463083525699783</v>
       </c>
       <c r="F36" t="n">
-        <v>1.050259398892018</v>
+        <v>0.6891053370489021</v>
       </c>
     </row>
     <row r="37">
@@ -1391,10 +1391,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.559010211195825</v>
+        <v>1.47400677072359</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8668594479766403</v>
+        <v>1.327333246064974</v>
       </c>
     </row>
     <row r="38">
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.6889045826627476</v>
+        <v>0.2895938136040679</v>
       </c>
       <c r="F38" t="n">
-        <v>1.471652111045802</v>
+        <v>0.96559319066395</v>
       </c>
     </row>
     <row r="39">
@@ -1443,10 +1443,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.585138651079383</v>
+        <v>0.5532345633846152</v>
       </c>
       <c r="F39" t="n">
-        <v>1.279187456288536</v>
+        <v>1.958688969295071</v>
       </c>
     </row>
     <row r="40">
@@ -1469,10 +1469,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.6604500153012193</v>
+        <v>0.2776324086663498</v>
       </c>
       <c r="F40" t="n">
-        <v>1.229691612840605</v>
+        <v>0.8068359628361268</v>
       </c>
     </row>
     <row r="41">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.5506709500418711</v>
+        <v>0.5206461785647369</v>
       </c>
       <c r="F41" t="n">
-        <v>1.038154203326002</v>
+        <v>1.589619391970718</v>
       </c>
     </row>
     <row r="42">
@@ -1521,10 +1521,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.7881970530656944</v>
+        <v>0.3313332444190246</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4359485954062742</v>
+        <v>0.2860383864123106</v>
       </c>
     </row>
     <row r="43">
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.8671463577255731</v>
+        <v>0.8198660876732673</v>
       </c>
       <c r="F43" t="n">
-        <v>0.48989333856815</v>
+        <v>0.7501235832695138</v>
       </c>
     </row>
     <row r="44">
@@ -1573,10 +1573,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.3429200730539103</v>
+        <v>0.1441528104417957</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1864620702421946</v>
+        <v>0.1223431162783571</v>
       </c>
     </row>
     <row r="45">
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.4109564736908039</v>
+        <v>0.3885494914291156</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2183289004265179</v>
+        <v>0.3343047235504502</v>
       </c>
     </row>
     <row r="46">
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.5642465960932982</v>
+        <v>0.2371915177921901</v>
       </c>
       <c r="F46" t="n">
-        <v>1.018002346905844</v>
+        <v>0.6679405593715144</v>
       </c>
     </row>
     <row r="47">
@@ -1651,10 +1651,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.546003760513862</v>
+        <v>0.5162334627819078</v>
       </c>
       <c r="F47" t="n">
-        <v>1.095335609617346</v>
+        <v>1.677175433269463</v>
       </c>
     </row>
     <row r="48">
@@ -1677,10 +1677,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.6881244253653885</v>
+        <v>0.2892658600200171</v>
       </c>
       <c r="F48" t="n">
-        <v>1.175009278666988</v>
+        <v>0.7709573138460928</v>
       </c>
     </row>
     <row r="49">
@@ -1703,10 +1703,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.5961241282256688</v>
+        <v>0.5636210686024573</v>
       </c>
       <c r="F49" t="n">
-        <v>1.06016981904746</v>
+        <v>1.623329653476075</v>
       </c>
     </row>
     <row r="50">
@@ -1729,10 +1729,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.329595052614594</v>
+        <v>0.5589199310411013</v>
       </c>
       <c r="F50" t="n">
-        <v>1.072156351893699</v>
+        <v>0.7034725564182183</v>
       </c>
     </row>
     <row r="51">
@@ -1755,10 +1755,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.10716316149744</v>
+        <v>1.046796220206394</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9737831642221926</v>
+        <v>1.491054601005278</v>
       </c>
     </row>
     <row r="52">
@@ -1781,10 +1781,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.40072151731518</v>
+        <v>0.5888192591617003</v>
       </c>
       <c r="F52" t="n">
-        <v>1.110219413107877</v>
+        <v>0.7284468233990994</v>
       </c>
     </row>
     <row r="53">
@@ -1807,10 +1807,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.175121845564145</v>
+        <v>1.111049526390292</v>
       </c>
       <c r="F53" t="n">
-        <v>1.007311819374424</v>
+        <v>1.542393602712281</v>
       </c>
     </row>
     <row r="54">
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.7821029431564251</v>
+        <v>0.3287714723339468</v>
       </c>
       <c r="F54" t="n">
-        <v>1.110390444615214</v>
+        <v>0.728559042080154</v>
       </c>
     </row>
     <row r="55">
@@ -1859,10 +1859,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.6898171657868925</v>
+        <v>0.6522055889238294</v>
       </c>
       <c r="F55" t="n">
-        <v>1.03348480520761</v>
+        <v>1.582469620025426</v>
       </c>
     </row>
     <row r="56">
@@ -1885,10 +1885,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1.584538291003529</v>
+        <v>0.6660900479421324</v>
       </c>
       <c r="F56" t="n">
-        <v>1.101619720719911</v>
+        <v>0.7228043183876918</v>
       </c>
     </row>
     <row r="57">
@@ -1911,10 +1911,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.495334679241995</v>
+        <v>1.413803082155457</v>
       </c>
       <c r="F57" t="n">
-        <v>1.006066012330443</v>
+        <v>1.54048602575558</v>
       </c>
     </row>
     <row r="58">
@@ -1937,10 +1937,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.9717175532444249</v>
+        <v>0.4084794891367816</v>
       </c>
       <c r="F58" t="n">
-        <v>1.512201951581312</v>
+        <v>0.992199104935206</v>
       </c>
     </row>
     <row r="59">
@@ -1963,10 +1963,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.8670934522920931</v>
+        <v>0.8198160668545468</v>
       </c>
       <c r="F59" t="n">
-        <v>1.43676814416819</v>
+        <v>2.199976165793493</v>
       </c>
     </row>
     <row r="60">
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.9778335437673178</v>
+        <v>0.4110504591434624</v>
       </c>
       <c r="F60" t="n">
-        <v>1.358859120668201</v>
+        <v>0.8915864721971518</v>
       </c>
     </row>
     <row r="61">
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.8439113862496799</v>
+        <v>0.7978979793009904</v>
       </c>
       <c r="F61" t="n">
-        <v>1.240744426322007</v>
+        <v>1.899825087874446</v>
       </c>
     </row>
     <row r="62">
@@ -2041,10 +2041,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.894035570577558</v>
+        <v>0.3758244274998407</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4293242103319347</v>
+        <v>0.2816919372263187</v>
       </c>
     </row>
     <row r="63">
@@ -2067,10 +2067,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.9731251531218827</v>
+        <v>0.920066497423931</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4547950796170384</v>
+        <v>0.6963812077396072</v>
       </c>
     </row>
     <row r="64">
@@ -2093,10 +2093,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2102867027479257</v>
+        <v>0.08839791421275714</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1540118904199481</v>
+        <v>0.1010516218844033</v>
       </c>
     </row>
     <row r="65">
@@ -2119,10 +2119,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.254918367984406</v>
+        <v>0.241019204167114</v>
       </c>
       <c r="F65" t="n">
-        <v>0.17740193051421</v>
+        <v>0.2716374388457549</v>
       </c>
     </row>
     <row r="66">
@@ -2145,10 +2145,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1.25434821784756</v>
+        <v>0.5272885289714647</v>
       </c>
       <c r="F66" t="n">
-        <v>1.018889595995581</v>
+        <v>0.6685227089658664</v>
       </c>
     </row>
     <row r="67">
@@ -2171,10 +2171,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1.041510550633464</v>
+        <v>0.9847232509376731</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9826584708511544</v>
+        <v>1.504644450646</v>
       </c>
     </row>
     <row r="68">
@@ -2197,10 +2197,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.4141957273168388</v>
+        <v>0.1741148531608979</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7539273349187751</v>
+        <v>0.4946733643018784</v>
       </c>
     </row>
     <row r="69">
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.3422891504703293</v>
+        <v>0.3236261839179943</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6114440625571217</v>
+        <v>0.9362417797204072</v>
       </c>
     </row>
     <row r="70">
@@ -2249,10 +2249,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.4271645592011288</v>
+        <v>0.1795665420854295</v>
       </c>
       <c r="F70" t="n">
-        <v>0.803840720253821</v>
+        <v>0.5274229690765126</v>
       </c>
     </row>
     <row r="71">
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.3592144029155666</v>
+        <v>0.3396286042493849</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6575381714302198</v>
+        <v>1.00682097603396</v>
       </c>
     </row>
     <row r="72">
@@ -2301,10 +2301,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1.22909416357761</v>
+        <v>0.5166725190492618</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7953715588262912</v>
+        <v>0.5218661091748575</v>
       </c>
     </row>
     <row r="73">
@@ -2327,10 +2327,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1.068447042793447</v>
+        <v>1.010191058356908</v>
       </c>
       <c r="F73" t="n">
-        <v>0.64976238897088</v>
+        <v>0.99491471534021</v>
       </c>
     </row>
     <row r="74">
@@ -2353,10 +2353,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.3091224044870526</v>
+        <v>0.1299453338513923</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7611612196752668</v>
+        <v>0.499419723723707</v>
       </c>
     </row>
     <row r="75">
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.2532309675208311</v>
+        <v>0.2394238074914735</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6160711127720202</v>
+        <v>0.9433267086506765</v>
       </c>
     </row>
     <row r="76">
@@ -2405,10 +2405,10 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1.947198845739511</v>
+        <v>0.8185411358472543</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5312710822589376</v>
+        <v>0.3485822060631907</v>
       </c>
     </row>
     <row r="77">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.787481250227875</v>
+        <v>1.690020659554492</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4263333051196509</v>
+        <v>0.6528006023478498</v>
       </c>
     </row>
     <row r="78">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.341705885508423</v>
+        <v>0.1436424041960292</v>
       </c>
       <c r="F78" t="n">
-        <v>1.524091041210284</v>
+        <v>0.9999998778915067</v>
       </c>
     </row>
     <row r="79">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.2818039702626913</v>
+        <v>0.2664388964235083</v>
       </c>
       <c r="F79" t="n">
-        <v>1.241723680346842</v>
+        <v>1.901324519444973</v>
       </c>
     </row>
     <row r="80">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.3732335761644899</v>
+        <v>0.1568956534862715</v>
       </c>
       <c r="F80" t="n">
-        <v>1.52408361167369</v>
+        <v>0.9999950031592982</v>
       </c>
     </row>
     <row r="81">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.300523520523782</v>
+        <v>0.284137782313796</v>
       </c>
       <c r="F81" t="n">
-        <v>1.252864950132907</v>
+        <v>1.918384006798938</v>
       </c>
     </row>
   </sheetData>
@@ -2607,10 +2607,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7063085619919217</v>
+        <v>0.3024120923161006</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4181757670871621</v>
+        <v>0.2743824031647699</v>
       </c>
     </row>
     <row r="3">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.130236887744992</v>
+        <v>1.089051610175725</v>
       </c>
       <c r="F3" t="n">
-        <v>0.605352383028968</v>
+        <v>0.9270015538747826</v>
       </c>
     </row>
     <row r="4">
@@ -2659,10 +2659,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.7352220932879142</v>
+        <v>0.3147916696934567</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2842745946474198</v>
+        <v>0.1865243100559484</v>
       </c>
     </row>
     <row r="5">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.146711042188892</v>
+        <v>1.104925454515745</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4119908314471551</v>
+        <v>0.6308988807852774</v>
       </c>
     </row>
     <row r="6">
@@ -2711,10 +2711,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.9121902027776844</v>
+        <v>0.3905620895126607</v>
       </c>
       <c r="F6" t="n">
-        <v>1.129587288078169</v>
+        <v>0.7411689033206489</v>
       </c>
     </row>
     <row r="7">
@@ -2737,10 +2737,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.192660974663885</v>
+        <v>1.149200993999506</v>
       </c>
       <c r="F7" t="n">
-        <v>1.565657147979703</v>
+        <v>2.39755661281157</v>
       </c>
     </row>
     <row r="8">
@@ -2763,10 +2763,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.044308439077168</v>
+        <v>0.4471296499564443</v>
       </c>
       <c r="F8" t="n">
-        <v>1.455706858948006</v>
+        <v>0.9551494316463816</v>
       </c>
     </row>
     <row r="9">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.288282478008004</v>
+        <v>1.24133809668433</v>
       </c>
       <c r="F9" t="n">
-        <v>1.711798407549002</v>
+        <v>2.621348867544423</v>
       </c>
     </row>
     <row r="10">
@@ -2815,10 +2815,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.602632957982242</v>
+        <v>0.6861811000440543</v>
       </c>
       <c r="F10" t="n">
-        <v>1.455938603290277</v>
+        <v>0.9553014886868817</v>
       </c>
     </row>
     <row r="11">
@@ -2841,10 +2841,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.851175470246566</v>
+        <v>1.783719544503745</v>
       </c>
       <c r="F11" t="n">
-        <v>1.69479458414512</v>
+        <v>2.595310197904864</v>
       </c>
     </row>
     <row r="12">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.750895978862788</v>
+        <v>0.7496611890169878</v>
       </c>
       <c r="F12" t="n">
-        <v>1.456850329586433</v>
+        <v>0.9558997099896378</v>
       </c>
     </row>
     <row r="13">
@@ -2893,10 +2893,10 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.122288184664276</v>
+        <v>2.044953044646181</v>
       </c>
       <c r="F13" t="n">
-        <v>1.713059593905307</v>
+        <v>2.623280175233626</v>
       </c>
     </row>
     <row r="14">
@@ -2919,10 +2919,10 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.089905127234125</v>
+        <v>0.4666522645901145</v>
       </c>
       <c r="F14" t="n">
-        <v>1.454838825092803</v>
+        <v>0.9545798787598572</v>
       </c>
     </row>
     <row r="15">
@@ -2945,10 +2945,10 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.283969216693542</v>
+        <v>1.237182008495601</v>
       </c>
       <c r="F15" t="n">
-        <v>1.70092920694052</v>
+        <v>2.604704403698383</v>
       </c>
     </row>
     <row r="16">
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2.337623208417863</v>
+        <v>1.000873504224075</v>
       </c>
       <c r="F16" t="n">
-        <v>1.396712009192739</v>
+        <v>0.9164404725812791</v>
       </c>
     </row>
     <row r="17">
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2.66485258457512</v>
+        <v>2.567746664066827</v>
       </c>
       <c r="F17" t="n">
-        <v>1.492203015128015</v>
+        <v>2.285073211075658</v>
       </c>
     </row>
     <row r="18">
@@ -3023,10 +3023,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.433338548111817</v>
+        <v>0.6136962407894101</v>
       </c>
       <c r="F18" t="n">
-        <v>1.523895713645997</v>
+        <v>0.999890957324478</v>
       </c>
     </row>
     <row r="19">
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.494971628658071</v>
+        <v>1.440495596109437</v>
       </c>
       <c r="F19" t="n">
-        <v>2.069094372954036</v>
+        <v>3.168491200521426</v>
       </c>
     </row>
     <row r="20">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.041339871801131</v>
+        <v>0.4458586323170775</v>
       </c>
       <c r="F20" t="n">
-        <v>1.524056625577911</v>
+        <v>0.9999965382931798</v>
       </c>
     </row>
     <row r="21">
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.199520450488438</v>
+        <v>1.155810513891036</v>
       </c>
       <c r="F21" t="n">
-        <v>2.13766683392377</v>
+        <v>3.273499092873143</v>
       </c>
     </row>
     <row r="22">
@@ -3127,10 +3127,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.8155228504310901</v>
+        <v>0.3491731302745796</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3941108471521682</v>
+        <v>0.2585924146397888</v>
       </c>
     </row>
     <row r="23">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.8911250331391106</v>
+        <v>0.8586528742167613</v>
       </c>
       <c r="F23" t="n">
-        <v>0.426725761074786</v>
+        <v>0.6534630979982388</v>
       </c>
     </row>
     <row r="24">
@@ -3179,10 +3179,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2505795755623328</v>
+        <v>0.1072878028319189</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1943651961528029</v>
+        <v>0.1275310379256913</v>
       </c>
     </row>
     <row r="25">
@@ -3205,10 +3205,10 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2972677469490538</v>
+        <v>0.2864354561229116</v>
       </c>
       <c r="F25" t="n">
-        <v>0.216584909837081</v>
+        <v>0.33166557792372</v>
       </c>
     </row>
     <row r="26">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.9476771231370175</v>
+        <v>0.4057561200160648</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9263810185626588</v>
+        <v>0.6078368717775777</v>
       </c>
     </row>
     <row r="27">
@@ -3257,10 +3257,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.9113725981167056</v>
+        <v>0.8781626278622843</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8921950577615799</v>
+        <v>1.366255800903997</v>
       </c>
     </row>
     <row r="28">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.9913750410278716</v>
+        <v>0.4244657598114004</v>
       </c>
       <c r="F28" t="n">
-        <v>1.092345978299483</v>
+        <v>0.7167333408650425</v>
       </c>
     </row>
     <row r="29">
@@ -3309,10 +3309,10 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.8264455656426574</v>
+        <v>0.7963302947769247</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9108941406130979</v>
+        <v>1.394890492606468</v>
       </c>
     </row>
     <row r="30">
@@ -3335,10 +3335,10 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.605076159665826</v>
+        <v>0.6872271778814787</v>
       </c>
       <c r="F30" t="n">
-        <v>1.071974728826559</v>
+        <v>0.7033669221823339</v>
       </c>
     </row>
     <row r="31">
@@ -3361,10 +3361,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.345417188666817</v>
+        <v>1.296390846523391</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8976233122436602</v>
+        <v>1.374568315202756</v>
       </c>
     </row>
     <row r="32">
@@ -3387,10 +3387,10 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.611268003052217</v>
+        <v>0.689878268940734</v>
       </c>
       <c r="F32" t="n">
-        <v>1.122379775483865</v>
+        <v>0.7364397564352602</v>
       </c>
     </row>
     <row r="33">
@@ -3413,10 +3413,10 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.33021146087311</v>
+        <v>1.281739207988863</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9281652240830668</v>
+        <v>1.421338428821161</v>
       </c>
     </row>
     <row r="34">
@@ -3439,10 +3439,10 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.8048980900635474</v>
+        <v>0.3446240476412836</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9701643485194332</v>
+        <v>0.6365649240408067</v>
       </c>
     </row>
     <row r="35">
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.6554709404830926</v>
+        <v>0.6315859010589716</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8089831472880138</v>
+        <v>1.238829904066991</v>
       </c>
     </row>
     <row r="36">
@@ -3491,10 +3491,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.743065150831593</v>
+        <v>0.7463083525699781</v>
       </c>
       <c r="F36" t="n">
-        <v>1.050293140721708</v>
+        <v>0.6891407361695092</v>
       </c>
     </row>
     <row r="37">
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.529970509356033</v>
+        <v>1.474219134769116</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8670388884696777</v>
+        <v>1.327733101271683</v>
       </c>
     </row>
     <row r="38">
@@ -3543,10 +3543,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.069711021573783</v>
+        <v>0.4580059843751701</v>
       </c>
       <c r="F38" t="n">
-        <v>1.47164904159319</v>
+        <v>0.9656097565388224</v>
       </c>
     </row>
     <row r="39">
@@ -3569,10 +3569,10 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.97879487121652</v>
+        <v>0.9431280664152215</v>
       </c>
       <c r="F39" t="n">
-        <v>1.279487362927985</v>
+        <v>1.959332790039801</v>
       </c>
     </row>
     <row r="40">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.9828975777789646</v>
+        <v>0.4208360609282314</v>
       </c>
       <c r="F40" t="n">
-        <v>1.229734121311332</v>
+        <v>0.8068793794758329</v>
       </c>
     </row>
     <row r="41">
@@ -3621,10 +3621,10 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.8842463133185758</v>
+        <v>0.8520248115710203</v>
       </c>
       <c r="F41" t="n">
-        <v>1.03833084402729</v>
+        <v>1.59003967413696</v>
       </c>
     </row>
     <row r="42">
@@ -3647,10 +3647,10 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.7738563738256818</v>
+        <v>0.3313332695568421</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4359478753606822</v>
+        <v>0.2860434178891753</v>
       </c>
     </row>
     <row r="43">
@@ -3673,10 +3673,10 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.8508956102516653</v>
+        <v>0.8198893917582968</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4898860128295509</v>
+        <v>0.7501830468432865</v>
       </c>
     </row>
     <row r="44">
@@ -3699,10 +3699,10 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.3366807215386601</v>
+        <v>0.1441527498348026</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1864620324424271</v>
+        <v>0.1223454455931602</v>
       </c>
     </row>
     <row r="45">
@@ -3725,10 +3725,10 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.4032555096593942</v>
+        <v>0.3885610767694939</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2183231430783105</v>
+        <v>0.3343274075634315</v>
       </c>
     </row>
     <row r="46">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.5539814404254044</v>
+        <v>0.2371919236415116</v>
       </c>
       <c r="F46" t="n">
-        <v>1.017989158134488</v>
+        <v>0.6679447581342086</v>
       </c>
     </row>
     <row r="47">
@@ -3777,10 +3777,10 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.5357671339270405</v>
+        <v>0.5162440424737958</v>
       </c>
       <c r="F47" t="n">
-        <v>1.09530474841549</v>
+        <v>1.6772862091781</v>
       </c>
     </row>
     <row r="48">
@@ -3803,10 +3803,10 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.6756044779997318</v>
+        <v>0.289265874384746</v>
       </c>
       <c r="F48" t="n">
-        <v>1.174990550418023</v>
+        <v>0.7709598601690238</v>
       </c>
     </row>
     <row r="49">
@@ -3829,10 +3829,10 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.5849451307231953</v>
+        <v>0.5636300171989039</v>
       </c>
       <c r="F49" t="n">
-        <v>1.060100191646722</v>
+        <v>1.623375991356163</v>
       </c>
     </row>
     <row r="50">
@@ -3855,10 +3855,10 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.305403926604976</v>
+        <v>0.5589199310411013</v>
       </c>
       <c r="F50" t="n">
-        <v>1.072139697615175</v>
+        <v>0.7034751650223794</v>
       </c>
     </row>
     <row r="51">
@@ -3881,10 +3881,10 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.086395352338668</v>
+        <v>1.046807638806064</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9737187105158843</v>
+        <v>1.491096397719112</v>
       </c>
     </row>
     <row r="52">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.375236291070452</v>
+        <v>0.5888192591617002</v>
       </c>
       <c r="F52" t="n">
-        <v>1.110201881333494</v>
+        <v>0.7284493367948782</v>
       </c>
     </row>
     <row r="53">
@@ -3933,10 +3933,10 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.153079540795628</v>
+        <v>1.111061888158346</v>
       </c>
       <c r="F53" t="n">
-        <v>1.007245747872399</v>
+        <v>1.542437759540133</v>
       </c>
     </row>
     <row r="54">
@@ -3959,10 +3959,10 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.7678730836114573</v>
+        <v>0.3287714723339468</v>
       </c>
       <c r="F54" t="n">
-        <v>1.110372470132982</v>
+        <v>0.7285612671563205</v>
       </c>
     </row>
     <row r="55">
@@ -3985,10 +3985,10 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.6768786278161709</v>
+        <v>0.6522135027706294</v>
       </c>
       <c r="F55" t="n">
-        <v>1.03341383936482</v>
+        <v>1.582510058180527</v>
       </c>
     </row>
     <row r="56">
@@ -4011,10 +4011,10 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1.555708636899935</v>
+        <v>0.6660900479421328</v>
       </c>
       <c r="F56" t="n">
-        <v>1.101602140199544</v>
+        <v>0.7228066912265704</v>
       </c>
     </row>
     <row r="57">
@@ -4037,10 +4037,10 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.467294558040672</v>
+        <v>1.413827064363882</v>
       </c>
       <c r="F57" t="n">
-        <v>1.005999785185447</v>
+        <v>1.540529764495833</v>
       </c>
     </row>
     <row r="58">
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.954037777939855</v>
+        <v>0.4084794891367814</v>
       </c>
       <c r="F58" t="n">
-        <v>1.512173204665311</v>
+        <v>0.9921993347140967</v>
       </c>
     </row>
     <row r="59">
@@ -4089,10 +4089,10 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.8508324616628508</v>
+        <v>0.8198285442730709</v>
       </c>
       <c r="F59" t="n">
-        <v>1.43667250385238</v>
+        <v>2.200037004589771</v>
       </c>
     </row>
     <row r="60">
@@ -4115,10 +4115,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.960042491952565</v>
+        <v>0.4110504591434627</v>
       </c>
       <c r="F60" t="n">
-        <v>1.358835513583682</v>
+        <v>0.8915881384513903</v>
       </c>
     </row>
     <row r="61">
@@ -4141,10 +4141,10 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.8280857192361828</v>
+        <v>0.7979106819783442</v>
       </c>
       <c r="F61" t="n">
-        <v>1.240661526392471</v>
+        <v>1.899877154268087</v>
       </c>
     </row>
     <row r="62">
@@ -4167,10 +4167,10 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.8777693614570288</v>
+        <v>0.3758245099288824</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4293205752176749</v>
+        <v>0.281694972372117</v>
       </c>
     </row>
     <row r="63">
@@ -4193,10 +4193,10 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.9548770127695266</v>
+        <v>0.92008176299327</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4547741926497639</v>
+        <v>0.6964148404588129</v>
       </c>
     </row>
     <row r="64">
@@ -4219,10 +4219,10 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2064605351896688</v>
+        <v>0.08839785582002298</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1540107817338172</v>
+        <v>0.1010528388571154</v>
       </c>
     </row>
     <row r="65">
@@ -4245,10 +4245,10 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.2501401833119201</v>
+        <v>0.2410251977786809</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1773931692706068</v>
+        <v>0.2716496179263504</v>
       </c>
     </row>
     <row r="66">
@@ -4271,10 +4271,10 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1.231524899034976</v>
+        <v>0.5272879892694845</v>
       </c>
       <c r="F66" t="n">
-        <v>1.018871947158343</v>
+        <v>0.6685239924966878</v>
       </c>
     </row>
     <row r="67">
@@ -4297,10 +4297,10 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1.021968691524327</v>
+        <v>0.9847286538968993</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9825887943299071</v>
+        <v>1.504679529972521</v>
       </c>
     </row>
     <row r="68">
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.4066597020911146</v>
+        <v>0.1741148528954441</v>
       </c>
       <c r="F68" t="n">
-        <v>0.7539194782756807</v>
+        <v>0.4946777277003084</v>
       </c>
     </row>
     <row r="69">
@@ -4349,10 +4349,10 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.335867544200178</v>
+        <v>0.3236286957035666</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6113996438524133</v>
+        <v>0.9362619786078453</v>
       </c>
     </row>
     <row r="70">
@@ -4375,10 +4375,10 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.4193925750483926</v>
+        <v>0.1795665420854295</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8038293576515516</v>
+        <v>0.5274256622355988</v>
       </c>
     </row>
     <row r="71">
@@ -4401,10 +4401,10 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.3524754616613768</v>
+        <v>0.3396314288021742</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6574878086069594</v>
+        <v>1.00683872289838</v>
       </c>
     </row>
     <row r="72">
@@ -4427,10 +4427,10 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1.206731586543105</v>
+        <v>0.5166725190492618</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7953641513360538</v>
+        <v>0.5218712905217359</v>
       </c>
     </row>
     <row r="73">
@@ -4453,10 +4453,10 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1.048399172649845</v>
+        <v>1.010196021259943</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6497163565404253</v>
+        <v>0.9949379716277009</v>
       </c>
     </row>
     <row r="74">
@@ -4479,10 +4479,10 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.3034981213456278</v>
+        <v>0.1299453338513923</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7611520725808421</v>
+        <v>0.4994233317327686</v>
       </c>
     </row>
     <row r="75">
@@ -4505,10 +4505,10 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.2484801421982449</v>
+        <v>0.2394256477485869</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6160251810255936</v>
+        <v>0.9433452581442844</v>
       </c>
     </row>
     <row r="76">
@@ -4531,10 +4531,10 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1.911770816317744</v>
+        <v>0.8185411358472543</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5312662991187763</v>
+        <v>0.3485857750391352</v>
       </c>
     </row>
     <row r="77">
@@ -4557,10 +4557,10 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.753968840906846</v>
+        <v>1.690055077036759</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4263027286933222</v>
+        <v>0.6528152907277129</v>
       </c>
     </row>
     <row r="78">
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.3354887669065549</v>
+        <v>0.1436424041960293</v>
       </c>
       <c r="F78" t="n">
-        <v>1.524061715332487</v>
+        <v>0.9999998778915066</v>
       </c>
     </row>
     <row r="79">
@@ -4609,10 +4609,10 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.2765170196959607</v>
+        <v>0.2664408751883022</v>
       </c>
       <c r="F79" t="n">
-        <v>1.241644921921932</v>
+        <v>1.901383069185482</v>
       </c>
     </row>
     <row r="80">
@@ -4635,10 +4635,10 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.3664428315281735</v>
+        <v>0.1568956534862715</v>
       </c>
       <c r="F80" t="n">
-        <v>1.524054285938849</v>
+        <v>0.9999950031592985</v>
       </c>
     </row>
     <row r="81">
@@ -4661,10 +4661,10 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.2948851409368433</v>
+        <v>0.2841396711046141</v>
       </c>
       <c r="F81" t="n">
-        <v>1.252765968627765</v>
+        <v>1.918413195548308</v>
       </c>
     </row>
   </sheetData>
